--- a/Data/EC/NIT-9004652655.xlsx
+++ b/Data/EC/NIT-9004652655.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89EE198-2291-4BE8-A7B1-B82DA4A4FBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4CF713-2419-49DD-A36D-99BAC2B69A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E199A5E7-B38F-464B-8B4A-73A530C50DE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B01A3F4-3908-4DD8-9512-106977A63136}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,67 +65,67 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8853287</t>
+  </si>
+  <si>
+    <t>SENEN MARTINEZ TORREGLOSA</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>9101444</t>
   </si>
   <si>
     <t>JOSE GREGORIO ALCAZAR ARRIETA</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>8853287</t>
-  </si>
-  <si>
-    <t>SENEN MARTINEZ TORREGLOSA</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC4E1F6-E174-F4E3-EEB8-2351667A6747}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4005B0E3-E27B-4F50-0FF3-E14B243EB3A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77ED7666-58D5-4FCA-8E7F-EB4C95446740}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBEE16-CBE8-4069-A15B-3CC7770D6476}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>29260</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1082,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
@@ -1105,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1128,13 +1128,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1151,13 +1151,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1174,13 +1174,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1243,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1266,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1289,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1312,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1335,13 +1335,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1358,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1381,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1404,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1427,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1450,16 +1450,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F33" s="24">
-        <v>29260</v>
+        <v>35112</v>
       </c>
       <c r="G33" s="24">
         <v>877803</v>

--- a/Data/EC/NIT-9004652655.xlsx
+++ b/Data/EC/NIT-9004652655.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4CF713-2419-49DD-A36D-99BAC2B69A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4598EA39-0B05-456C-A777-C34C4E471BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B01A3F4-3908-4DD8-9512-106977A63136}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{927A6E67-BB19-4CC3-A062-4F31C0027EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>SENEN MARTINEZ TORREGLOSA</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>9101444</t>
+  </si>
+  <si>
+    <t>JOSE GREGORIO ALCAZAR ARRIETA</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>9101444</t>
-  </si>
-  <si>
-    <t>JOSE GREGORIO ALCAZAR ARRIETA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -224,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -237,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -439,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4005B0E3-E27B-4F50-0FF3-E14B243EB3A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75126DB0-000A-48FD-CFA6-C0452BD211FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBEE16-CBE8-4069-A15B-3CC7770D6476}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9F9541-38DC-47FC-9311-5AF586ACEC69}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29260</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1082,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1134,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1180,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1203,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1226,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1249,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1272,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1318,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1364,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1387,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1410,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1433,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1450,16 +1450,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D33" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>27</v>
-      </c>
       <c r="F33" s="24">
-        <v>35112</v>
+        <v>29260</v>
       </c>
       <c r="G33" s="24">
         <v>877803</v>
